--- a/3) Январь/915/915 Разработка моб приложений_январь.xlsx
+++ b/3) Январь/915/915 Разработка моб приложений_январь.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ilyao\OneDrive\Рабочий стол\Журналы\3) Январь\915\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6C6D32C-8BE9-4651-883E-0043B30FE22B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39E39628-3087-43CE-ADBF-F1E008CA2899}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2265" yWindow="11580" windowWidth="17685" windowHeight="13545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="44">
   <si>
     <t>ФИО</t>
   </si>
@@ -139,6 +139,24 @@
   </si>
   <si>
     <t>Лаба 8</t>
+  </si>
+  <si>
+    <t>Практика 2.9</t>
+  </si>
+  <si>
+    <t>Лекция 2.4</t>
+  </si>
+  <si>
+    <t>Практика 2.10</t>
+  </si>
+  <si>
+    <t>Лекция 2.5</t>
+  </si>
+  <si>
+    <t>Лекция 3.1</t>
+  </si>
+  <si>
+    <t>Лекция 3.2</t>
   </si>
 </sst>
 </file>
@@ -245,7 +263,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -260,8 +278,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -544,8 +560,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="R38" sqref="R38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -558,8 +574,17 @@
     <col min="6" max="6" width="15.7109375" customWidth="1"/>
     <col min="7" max="7" width="16.7109375" customWidth="1"/>
     <col min="8" max="8" width="13.85546875" customWidth="1"/>
-    <col min="9" max="19" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.85546875" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" customWidth="1"/>
+    <col min="10" max="10" width="15.85546875" customWidth="1"/>
+    <col min="11" max="11" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
+    <col min="13" max="13" width="11.140625" customWidth="1"/>
+    <col min="14" max="15" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.5703125" customWidth="1"/>
+    <col min="17" max="17" width="12.7109375" customWidth="1"/>
+    <col min="18" max="18" width="12.28515625" customWidth="1"/>
+    <col min="19" max="19" width="11.42578125" customWidth="1"/>
+    <col min="20" max="20" width="11.140625" customWidth="1"/>
     <col min="21" max="21" width="10.28515625" customWidth="1"/>
     <col min="22" max="24" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="10.42578125" customWidth="1"/>
@@ -572,25 +597,25 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6">
+      <c r="B1" s="1">
         <v>45671</v>
       </c>
-      <c r="C1" s="6">
+      <c r="C1" s="1">
         <v>45671</v>
       </c>
-      <c r="D1" s="6">
+      <c r="D1" s="1">
         <v>45671</v>
       </c>
-      <c r="E1" s="6">
+      <c r="E1" s="1">
         <v>45673</v>
       </c>
-      <c r="F1" s="6">
+      <c r="F1" s="1">
         <v>45674</v>
       </c>
-      <c r="G1" s="6">
+      <c r="G1" s="1">
         <v>45674</v>
       </c>
-      <c r="H1" s="6">
+      <c r="H1" s="1">
         <v>45675</v>
       </c>
       <c r="I1" s="1">
@@ -642,18 +667,15 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2">
         <v>4</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
+      <c r="C2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" t="s">
+        <v>33</v>
+      </c>
       <c r="I2" t="s">
         <v>33</v>
       </c>
@@ -668,19 +690,15 @@
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3">
         <v>5</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
+      <c r="C3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" t="s">
+        <v>33</v>
+      </c>
       <c r="I3" t="s">
         <v>34</v>
       </c>
@@ -695,19 +713,15 @@
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" t="s">
+        <v>33</v>
+      </c>
       <c r="I4" t="s">
         <v>33</v>
       </c>
@@ -722,19 +736,15 @@
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5">
         <v>3</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
+      <c r="C5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" t="s">
+        <v>33</v>
+      </c>
       <c r="I5" t="s">
         <v>33</v>
       </c>
@@ -749,19 +759,15 @@
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" t="s">
+        <v>33</v>
+      </c>
       <c r="I6" t="s">
         <v>34</v>
       </c>
@@ -776,19 +782,15 @@
       <c r="A7" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7">
         <v>5</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
+      <c r="C7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" t="s">
+        <v>34</v>
+      </c>
       <c r="I7" t="s">
         <v>33</v>
       </c>
@@ -803,19 +805,15 @@
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8">
         <v>5</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
+      <c r="C8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" t="s">
+        <v>33</v>
+      </c>
       <c r="I8">
         <v>5</v>
       </c>
@@ -830,19 +828,15 @@
       <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" t="s">
+        <v>34</v>
+      </c>
       <c r="I9" t="s">
         <v>34</v>
       </c>
@@ -857,19 +851,15 @@
       <c r="A10" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10">
         <v>3</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
+      <c r="C10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" t="s">
+        <v>33</v>
+      </c>
       <c r="I10">
         <v>3</v>
       </c>
@@ -881,19 +871,15 @@
       <c r="A11" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11">
         <v>5</v>
       </c>
-      <c r="C11" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
+      <c r="C11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" t="s">
+        <v>33</v>
+      </c>
       <c r="I11">
         <v>5</v>
       </c>
@@ -908,19 +894,15 @@
       <c r="A12" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
+      <c r="B12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" t="s">
+        <v>33</v>
+      </c>
       <c r="I12" t="s">
         <v>34</v>
       </c>
@@ -935,19 +917,15 @@
       <c r="A13" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13">
         <v>5</v>
       </c>
-      <c r="C13" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
+      <c r="C13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" t="s">
+        <v>33</v>
+      </c>
       <c r="I13">
         <v>5</v>
       </c>
@@ -962,19 +940,15 @@
       <c r="A14" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
+      <c r="B14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" t="s">
+        <v>34</v>
+      </c>
       <c r="I14" t="s">
         <v>34</v>
       </c>
@@ -989,19 +963,15 @@
       <c r="A15" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15">
         <v>5</v>
       </c>
-      <c r="C15" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
+      <c r="C15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" t="s">
+        <v>33</v>
+      </c>
       <c r="I15" t="s">
         <v>33</v>
       </c>
@@ -1016,19 +986,15 @@
       <c r="A16" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B16">
         <v>3</v>
       </c>
-      <c r="C16" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
+      <c r="C16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" t="s">
+        <v>34</v>
+      </c>
       <c r="I16">
         <v>3</v>
       </c>
@@ -1040,19 +1006,15 @@
       <c r="A17" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
+      <c r="B17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" t="s">
+        <v>34</v>
+      </c>
       <c r="I17" t="s">
         <v>33</v>
       </c>
@@ -1067,19 +1029,15 @@
       <c r="A18" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
+      <c r="B18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" t="s">
+        <v>33</v>
+      </c>
       <c r="I18" t="s">
         <v>33</v>
       </c>
@@ -1094,19 +1052,15 @@
       <c r="A19" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="7">
+      <c r="B19">
         <v>5</v>
       </c>
-      <c r="C19" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
+      <c r="C19" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" t="s">
+        <v>33</v>
+      </c>
       <c r="I19" t="s">
         <v>33</v>
       </c>
@@ -1121,10 +1075,10 @@
       <c r="A20" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C20" s="7" t="s">
+      <c r="B20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" t="s">
         <v>33</v>
       </c>
       <c r="E20" t="s">
@@ -1144,10 +1098,10 @@
       <c r="A21" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C21" s="7" t="s">
+      <c r="B21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" t="s">
         <v>34</v>
       </c>
       <c r="E21" t="s">
@@ -1167,10 +1121,10 @@
       <c r="A22" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C22" s="7" t="s">
+      <c r="B22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" t="s">
         <v>34</v>
       </c>
       <c r="E22" t="s">
@@ -1190,10 +1144,10 @@
       <c r="A23" t="s">
         <v>17</v>
       </c>
-      <c r="B23" s="7">
+      <c r="B23">
         <v>3</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" t="s">
         <v>34</v>
       </c>
       <c r="E23" t="s">
@@ -1213,10 +1167,10 @@
       <c r="A24" t="s">
         <v>18</v>
       </c>
-      <c r="B24" s="7">
+      <c r="B24">
         <v>5</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" t="s">
         <v>33</v>
       </c>
       <c r="E24" t="s">
@@ -1236,10 +1190,10 @@
       <c r="A25" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C25" s="7" t="s">
+      <c r="B25" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" t="s">
         <v>34</v>
       </c>
       <c r="E25" t="s">
@@ -1259,10 +1213,10 @@
       <c r="A26" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C26" s="7" t="s">
+      <c r="B26" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" t="s">
         <v>33</v>
       </c>
       <c r="E26" t="s">
@@ -1334,6 +1288,63 @@
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28" t="s">
+        <v>38</v>
+      </c>
+      <c r="D28" t="s">
+        <v>39</v>
+      </c>
+      <c r="E28" t="s">
+        <v>38</v>
+      </c>
+      <c r="F28" t="s">
+        <v>39</v>
+      </c>
+      <c r="G28" t="s">
+        <v>39</v>
+      </c>
+      <c r="H28" t="s">
+        <v>41</v>
+      </c>
+      <c r="I28" t="s">
+        <v>40</v>
+      </c>
+      <c r="J28" t="s">
+        <v>40</v>
+      </c>
+      <c r="K28" t="s">
+        <v>41</v>
+      </c>
+      <c r="L28" t="s">
+        <v>40</v>
+      </c>
+      <c r="M28" t="s">
+        <v>41</v>
+      </c>
+      <c r="N28" t="s">
+        <v>42</v>
+      </c>
+      <c r="O28" t="s">
+        <v>42</v>
+      </c>
+      <c r="P28" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>43</v>
+      </c>
+      <c r="R28" t="s">
+        <v>43</v>
+      </c>
+      <c r="S28" t="s">
+        <v>43</v>
+      </c>
+      <c r="T28" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
